--- a/Resources/Campos archivos.xlsx
+++ b/Resources/Campos archivos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkachava\Desktop\Homework\18-Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben D. Colmenares\Documents\TEC\Data Bootcamp\Github Repository\Project_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9320E16E-AC49-4E02-95C7-A344F2EF391B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71552783-F64E-442E-992E-7318DCC50755}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3840569-A818-4611-906E-B04EA75495E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3840569-A818-4611-906E-B04EA75495E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,6 +1315,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,25 +1665,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>396</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>397</v>
       </c>
@@ -1748,11 +1752,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1782,7 +1786,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1830,7 +1834,7 @@
       <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1850,7 +1854,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>17</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>17</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>17</v>
       </c>
@@ -1932,7 +1936,7 @@
       <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1952,7 +1956,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>17</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>17</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>17</v>
       </c>
@@ -2054,7 +2058,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>17</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>17</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>17</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>18</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>18</v>
       </c>
@@ -2200,11 +2204,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2225,11 +2229,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2239,7 +2243,7 @@
       <c r="E18" s="9">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2250,7 +2254,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2275,11 +2279,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2289,7 +2293,7 @@
       <c r="E20" s="9">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2300,7 +2304,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2314,7 +2318,7 @@
       <c r="E21" s="9">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2325,7 +2329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>18</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2389,7 +2393,7 @@
       <c r="E24" s="9">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2400,7 +2404,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>18</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="E25" s="9">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2425,11 +2429,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2439,7 +2443,7 @@
       <c r="E26" s="9">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2450,11 +2454,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2464,7 +2468,7 @@
       <c r="E27" s="9">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2475,7 +2479,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>19</v>
       </c>
@@ -2489,7 +2493,7 @@
       <c r="E28" s="9">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2500,7 +2504,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>19</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="E29" s="9">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2525,7 +2529,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>19</v>
       </c>
@@ -2539,7 +2543,7 @@
       <c r="E30" s="9">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2550,7 +2554,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>19</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>19</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>19</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>19</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>19</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>20</v>
       </c>
@@ -2722,7 +2726,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>20</v>
       </c>
@@ -2744,7 +2748,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>20</v>
       </c>
@@ -2766,7 +2770,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>20</v>
       </c>
@@ -2788,7 +2792,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>20</v>
       </c>
@@ -2810,7 +2814,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>20</v>
       </c>
@@ -2832,7 +2836,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>20</v>
       </c>
@@ -2854,7 +2858,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>20</v>
       </c>
@@ -2876,7 +2880,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>20</v>
       </c>
@@ -2898,7 +2902,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>20</v>
       </c>
@@ -2920,7 +2924,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>20</v>
       </c>
@@ -2942,11 +2946,11 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>20</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2964,7 +2968,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>20</v>
       </c>
@@ -2986,7 +2990,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>20</v>
       </c>
@@ -3008,7 +3012,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>20</v>
       </c>
@@ -3030,7 +3034,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>20</v>
       </c>
@@ -3052,7 +3056,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>20</v>
       </c>
@@ -3074,7 +3078,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>20</v>
       </c>
@@ -3096,7 +3100,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>20</v>
       </c>
@@ -3118,7 +3122,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>20</v>
       </c>
@@ -3140,7 +3144,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>20</v>
       </c>
@@ -3162,7 +3166,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>20</v>
       </c>
@@ -3184,7 +3188,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>20</v>
       </c>
@@ -3206,7 +3210,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>20</v>
       </c>
@@ -3218,7 +3222,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>21</v>
       </c>
@@ -3230,7 +3234,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>21</v>
       </c>
@@ -3242,7 +3246,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>21</v>
       </c>
@@ -3254,7 +3258,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>21</v>
       </c>
@@ -3266,7 +3270,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>21</v>
       </c>
@@ -3278,7 +3282,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>21</v>
       </c>
@@ -3290,7 +3294,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>21</v>
       </c>
@@ -3302,7 +3306,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>21</v>
       </c>
@@ -3314,7 +3318,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>21</v>
       </c>
@@ -3326,7 +3330,7 @@
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>21</v>
       </c>
@@ -3338,7 +3342,7 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>21</v>
       </c>
@@ -3350,7 +3354,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>21</v>
       </c>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>21</v>
       </c>
@@ -3374,7 +3378,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>21</v>
       </c>
@@ -3386,7 +3390,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>21</v>
       </c>
@@ -3398,7 +3402,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>21</v>
       </c>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>21</v>
       </c>
@@ -3422,7 +3426,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>21</v>
       </c>
@@ -3434,11 +3438,11 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>21</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3446,11 +3450,11 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>21</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3458,11 +3462,11 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>22</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3470,7 +3474,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>22</v>
       </c>
@@ -3482,7 +3486,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>22</v>
       </c>
@@ -3494,7 +3498,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>22</v>
       </c>
@@ -3506,7 +3510,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>22</v>
       </c>
@@ -3518,7 +3522,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>22</v>
       </c>
@@ -3530,7 +3534,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>22</v>
       </c>
@@ -3542,7 +3546,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>22</v>
       </c>
@@ -3554,7 +3558,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>22</v>
       </c>
@@ -3566,7 +3570,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>22</v>
       </c>
@@ -3578,7 +3582,7 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>22</v>
       </c>
@@ -3590,7 +3594,7 @@
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>22</v>
       </c>
@@ -3602,7 +3606,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>22</v>
       </c>
@@ -3614,7 +3618,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>22</v>
       </c>
@@ -3626,7 +3630,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>22</v>
       </c>
@@ -3638,7 +3642,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>22</v>
       </c>
@@ -3650,7 +3654,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>22</v>
       </c>
@@ -3662,11 +3666,11 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>22</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3674,11 +3678,11 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>22</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3686,11 +3690,11 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>22</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3698,11 +3702,11 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>22</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3710,11 +3714,11 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>22</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3722,11 +3726,11 @@
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>22</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3734,11 +3738,11 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>3</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3746,7 +3750,7 @@
       </c>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>161</v>
       </c>
@@ -3755,7 +3759,7 @@
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>162</v>
       </c>
@@ -3764,7 +3768,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>163</v>
       </c>
@@ -3773,8 +3777,8 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -3782,7 +3786,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>165</v>
       </c>
@@ -3791,7 +3795,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>166</v>
       </c>
@@ -3800,7 +3804,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>167</v>
       </c>

--- a/Resources/Campos archivos.xlsx
+++ b/Resources/Campos archivos.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben D. Colmenares\Documents\TEC\Data Bootcamp\Github Repository\Project_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\Data Boot Camp\Proyecto 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71552783-F64E-442E-992E-7318DCC50755}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD56B53D-7C05-44E5-A3D2-E4C86381607A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3840569-A818-4611-906E-B04EA75495E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B3840569-A818-4611-906E-B04EA75495E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Campos" sheetId="1" r:id="rId1"/>
+    <sheet name="Campos seleccionados" sheetId="3" r:id="rId2"/>
+    <sheet name="Entidades megalopolis" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Campos!$A$1:$M$111</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="447">
   <si>
     <t>folioviv</t>
   </si>
@@ -1234,13 +1235,161 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>9 Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 México </t>
+  </si>
+  <si>
+    <t>Estado de México</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Veracruz de Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>Chiapas</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t>Oaxaca</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Tamaulipas</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Sinaloa</t>
+  </si>
+  <si>
+    <t>Coahuila de Zaragoza</t>
+  </si>
+  <si>
+    <t>Sonora</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Yucatán</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>Morelos</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Quintana Roo</t>
+  </si>
+  <si>
+    <t>Zacatecas</t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t>Tlaxcala</t>
+  </si>
+  <si>
+    <t>Nayarit</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Baja California Sur</t>
+  </si>
+  <si>
+    <t>Colima</t>
+  </si>
+  <si>
+    <t>Entidad Federativa</t>
+  </si>
+  <si>
+    <t>Total de Poblacion</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Etiqueta 1 Casa independiente 2 Departamento en condominio vertical 3 Vivienda en vecindad 4 Vivienda en cuarto de azotea 5 Local no construido para habitación</t>
+  </si>
+  <si>
+    <t>1 Agua entubada dentro de la vivienda 2 Agua entubada fuera de la vivienda, pero dentro del terreno 3 Agua entubada de llave pública (o hidrante) 4 Agua entubada que acarrean de otra vivienda 5 Agua de pipa 6 Agua de un pozo, río, lago, arroyo u otra</t>
+  </si>
+  <si>
+    <t>1 La red pública 2 Una fosa séptica 3 Una tubería que va a dar a una barranca o grieta 4 Una tubería que va a dar a un río, lago o mar 5 No tiene drenaje</t>
+  </si>
+  <si>
+    <t>1 Del servicio público 2 De una planta particular 3 De panel solar 4 De otra fuente 5 No tiene luz eléctrica</t>
+  </si>
+  <si>
+    <t>1 Es rentada 2 Es prestada 3 Es propia pero la están pagando 4 Es propia 5 Está intestada o en litigio 6 Otra situación</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>1 Sí 2 No</t>
+  </si>
+  <si>
+    <t>número</t>
+  </si>
+  <si>
+    <t>1 Bajo 2 Medio bajo 3 Medio alto 4 Alto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,8 +1405,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,8 +1457,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1291,11 +1472,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1316,11 +1559,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1663,28 +1933,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F79B89-F447-499A-920C-4E91D4D0F0E6}">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" customWidth="1"/>
+    <col min="4" max="4" width="3.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="44.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>396</v>
       </c>
@@ -1718,7 +1989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>397</v>
       </c>
@@ -1752,7 +2023,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1786,7 +2057,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1820,7 +2091,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1834,7 +2105,7 @@
       <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1854,7 +2125,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>17</v>
       </c>
@@ -1888,7 +2159,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>17</v>
       </c>
@@ -1922,7 +2193,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>17</v>
       </c>
@@ -1936,7 +2207,7 @@
       <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1956,7 +2227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>17</v>
       </c>
@@ -1990,7 +2261,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>17</v>
       </c>
@@ -2024,7 +2295,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>17</v>
       </c>
@@ -2058,7 +2329,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>17</v>
       </c>
@@ -2092,7 +2363,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>17</v>
       </c>
@@ -2123,7 +2394,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>17</v>
       </c>
@@ -2154,7 +2425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>18</v>
       </c>
@@ -2179,7 +2450,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>18</v>
       </c>
@@ -2204,7 +2475,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>18</v>
       </c>
@@ -2229,7 +2500,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -2243,7 +2514,7 @@
       <c r="E18" s="9">
         <v>7</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2254,7 +2525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2279,7 +2550,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2293,7 +2564,7 @@
       <c r="E20" s="9">
         <v>7</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2304,7 +2575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2318,7 +2589,7 @@
       <c r="E21" s="9">
         <v>7</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2329,7 +2600,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2354,7 +2625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>18</v>
       </c>
@@ -2379,7 +2650,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2393,7 +2664,7 @@
       <c r="E24" s="9">
         <v>9</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2404,7 +2675,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>18</v>
       </c>
@@ -2418,7 +2689,7 @@
       <c r="E25" s="9">
         <v>9</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2429,7 +2700,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>19</v>
       </c>
@@ -2443,7 +2714,7 @@
       <c r="E26" s="9">
         <v>9</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2454,7 +2725,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>19</v>
       </c>
@@ -2468,7 +2739,7 @@
       <c r="E27" s="9">
         <v>9</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2479,7 +2750,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>19</v>
       </c>
@@ -2493,7 +2764,7 @@
       <c r="E28" s="9">
         <v>9</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2504,7 +2775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>19</v>
       </c>
@@ -2518,7 +2789,7 @@
       <c r="E29" s="9">
         <v>9</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2529,7 +2800,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>19</v>
       </c>
@@ -2543,7 +2814,7 @@
       <c r="E30" s="9">
         <v>9</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2554,7 +2825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>19</v>
       </c>
@@ -2579,7 +2850,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>19</v>
       </c>
@@ -2604,7 +2875,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>19</v>
       </c>
@@ -2629,7 +2900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>19</v>
       </c>
@@ -2654,7 +2925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>19</v>
       </c>
@@ -2679,7 +2950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -2704,7 +2975,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>20</v>
       </c>
@@ -2726,7 +2997,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>20</v>
       </c>
@@ -2748,7 +3019,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>20</v>
       </c>
@@ -2770,7 +3041,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>20</v>
       </c>
@@ -2792,7 +3063,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>20</v>
       </c>
@@ -2814,7 +3085,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>20</v>
       </c>
@@ -2836,7 +3107,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>20</v>
       </c>
@@ -2858,7 +3129,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>20</v>
       </c>
@@ -2880,7 +3151,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>20</v>
       </c>
@@ -2902,7 +3173,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>20</v>
       </c>
@@ -2924,7 +3195,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>20</v>
       </c>
@@ -2946,7 +3217,7 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>20</v>
       </c>
@@ -2968,7 +3239,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>20</v>
       </c>
@@ -2990,7 +3261,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>20</v>
       </c>
@@ -3012,7 +3283,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>20</v>
       </c>
@@ -3034,7 +3305,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>20</v>
       </c>
@@ -3056,7 +3327,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>20</v>
       </c>
@@ -3078,7 +3349,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>20</v>
       </c>
@@ -3100,7 +3371,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>20</v>
       </c>
@@ -3122,7 +3393,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>20</v>
       </c>
@@ -3144,7 +3415,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>20</v>
       </c>
@@ -3166,7 +3437,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>20</v>
       </c>
@@ -3188,7 +3459,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>20</v>
       </c>
@@ -3210,7 +3481,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>20</v>
       </c>
@@ -3222,7 +3493,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>21</v>
       </c>
@@ -3234,7 +3505,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>21</v>
       </c>
@@ -3246,7 +3517,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>21</v>
       </c>
@@ -3258,7 +3529,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>21</v>
       </c>
@@ -3270,7 +3541,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>21</v>
       </c>
@@ -3282,7 +3553,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>21</v>
       </c>
@@ -3294,7 +3565,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>21</v>
       </c>
@@ -3306,7 +3577,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>21</v>
       </c>
@@ -3318,7 +3589,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>21</v>
       </c>
@@ -3330,7 +3601,7 @@
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>21</v>
       </c>
@@ -3342,7 +3613,7 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>21</v>
       </c>
@@ -3354,7 +3625,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>21</v>
       </c>
@@ -3366,7 +3637,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>21</v>
       </c>
@@ -3378,7 +3649,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>21</v>
       </c>
@@ -3390,7 +3661,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>21</v>
       </c>
@@ -3402,7 +3673,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>21</v>
       </c>
@@ -3414,7 +3685,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>21</v>
       </c>
@@ -3426,7 +3697,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>21</v>
       </c>
@@ -3438,7 +3709,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>21</v>
       </c>
@@ -3450,7 +3721,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>21</v>
       </c>
@@ -3462,7 +3733,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>22</v>
       </c>
@@ -3474,7 +3745,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>22</v>
       </c>
@@ -3486,7 +3757,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>22</v>
       </c>
@@ -3498,7 +3769,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>22</v>
       </c>
@@ -3510,7 +3781,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>22</v>
       </c>
@@ -3522,7 +3793,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>22</v>
       </c>
@@ -3534,7 +3805,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>22</v>
       </c>
@@ -3546,7 +3817,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>22</v>
       </c>
@@ -3558,7 +3829,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>22</v>
       </c>
@@ -3570,7 +3841,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>22</v>
       </c>
@@ -3582,7 +3853,7 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>22</v>
       </c>
@@ -3594,7 +3865,7 @@
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>22</v>
       </c>
@@ -3606,7 +3877,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>22</v>
       </c>
@@ -3618,7 +3889,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
         <v>22</v>
       </c>
@@ -3630,7 +3901,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
         <v>22</v>
       </c>
@@ -3642,7 +3913,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
         <v>22</v>
       </c>
@@ -3654,7 +3925,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
         <v>22</v>
       </c>
@@ -3666,7 +3937,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
         <v>22</v>
       </c>
@@ -3678,7 +3949,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
         <v>22</v>
       </c>
@@ -3690,7 +3961,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
         <v>22</v>
       </c>
@@ -3702,7 +3973,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
         <v>22</v>
       </c>
@@ -3714,7 +3985,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>22</v>
       </c>
@@ -3726,7 +3997,7 @@
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
         <v>22</v>
       </c>
@@ -3738,7 +4009,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
         <v>3</v>
       </c>
@@ -3750,7 +4021,7 @@
       </c>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B105" s="2" t="s">
         <v>161</v>
       </c>
@@ -3759,7 +4030,7 @@
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" s="2" t="s">
         <v>162</v>
       </c>
@@ -3768,7 +4039,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" s="2" t="s">
         <v>163</v>
       </c>
@@ -3777,7 +4048,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" s="10" t="s">
         <v>164</v>
       </c>
@@ -3786,7 +4057,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>165</v>
       </c>
@@ -3795,7 +4066,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>166</v>
       </c>
@@ -3804,7 +4075,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
         <v>167</v>
       </c>
@@ -3814,7 +4085,825 @@
       <c r="D111" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M111" xr:uid="{4C440E4B-230A-4C2B-A5A0-B33900C52D92}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9FCB5-D0C1-442B-B9BE-9714CE3E06C4}">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1313067</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" t="s">
+        <v>401</v>
+      </c>
+      <c r="P2" s="15">
+        <v>17363387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1965487</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" t="s">
+        <v>402</v>
+      </c>
+      <c r="P3" s="15">
+        <v>8811266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2063148</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P4" s="15">
+        <v>8163963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2947206</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" s="15">
+        <v>8110943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="15">
+        <v>6313789</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" t="s">
+        <v>405</v>
+      </c>
+      <c r="P6" s="15">
+        <v>6313789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="15">
+        <v>8811266</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P7" s="15">
+        <v>5908845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" s="15">
+        <v>17363387</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" t="s">
+        <v>407</v>
+      </c>
+      <c r="P8" s="15">
+        <v>5382083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" t="s">
+        <v>408</v>
+      </c>
+      <c r="P9" s="15">
+        <v>5229492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="17">
+        <f>+SUM(K2:K8)</f>
+        <v>40777350</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" t="s">
+        <v>409</v>
+      </c>
+      <c r="P10" s="15">
+        <v>4658159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="9">
+        <v>9</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" t="s">
+        <v>410</v>
+      </c>
+      <c r="P11" s="15">
+        <v>4061497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
+        <v>22</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" t="s">
+        <v>411</v>
+      </c>
+      <c r="P12" s="15">
+        <v>3782018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>22</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P13" s="15">
+        <v>3622605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="9">
+        <v>9</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" t="s">
+        <v>413</v>
+      </c>
+      <c r="P14" s="15">
+        <v>3607210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="9">
+        <v>9</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" t="s">
+        <v>414</v>
+      </c>
+      <c r="P15" s="15">
+        <v>3584605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>22</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="9">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" t="s">
+        <v>415</v>
+      </c>
+      <c r="P16" s="15">
+        <v>3034942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9">
+        <v>22</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" t="s">
+        <v>416</v>
+      </c>
+      <c r="P17" s="15">
+        <v>3029740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>22</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" t="s">
+        <v>417</v>
+      </c>
+      <c r="P18" s="15">
+        <v>3011810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" t="s">
+        <v>445</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="15">
+        <v>2947206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" t="s">
+        <v>446</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="15">
+        <v>2801839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N21" s="13"/>
+      <c r="O21" t="s">
+        <v>420</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2431339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N22" s="13"/>
+      <c r="O22" t="s">
+        <v>421</v>
+      </c>
+      <c r="P22" s="15">
+        <v>2172839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N23" s="13"/>
+      <c r="O23" t="s">
+        <v>422</v>
+      </c>
+      <c r="P23" s="15">
+        <v>2063148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N24" s="13"/>
+      <c r="O24" t="s">
+        <v>423</v>
+      </c>
+      <c r="P24" s="15">
+        <v>1965487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N25" s="13"/>
+      <c r="O25" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" s="15">
+        <v>1799320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N26" s="13"/>
+      <c r="O26" t="s">
+        <v>425</v>
+      </c>
+      <c r="P26" s="15">
+        <v>1664667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N27" s="13"/>
+      <c r="O27" t="s">
+        <v>426</v>
+      </c>
+      <c r="P27" s="15">
+        <v>1600412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N28" s="13"/>
+      <c r="O28" t="s">
+        <v>427</v>
+      </c>
+      <c r="P28" s="15">
+        <v>1321453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N29" s="13"/>
+      <c r="O29" t="s">
+        <v>428</v>
+      </c>
+      <c r="P29" s="15">
+        <v>1313067</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N30" s="13"/>
+      <c r="O30" t="s">
+        <v>429</v>
+      </c>
+      <c r="P30" s="15">
+        <v>1268460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N31" s="13"/>
+      <c r="O31" t="s">
+        <v>430</v>
+      </c>
+      <c r="P31" s="15">
+        <v>935047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N32" s="13"/>
+      <c r="O32" t="s">
+        <v>431</v>
+      </c>
+      <c r="P32" s="15">
+        <v>809833</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>432</v>
+      </c>
+      <c r="P33" s="15">
+        <v>747801</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="J2:K8">
+    <sortCondition ref="K2:K8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8572AF-4AD2-4A2F-BC99-4703AE42FC80}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>